--- a/html/resources/aoiConditions/train1Block13.xlsx
+++ b/html/resources/aoiConditions/train1Block13.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/15_barrel.png</t>
   </si>
 </sst>
 </file>
